--- a/exp2/case01/report/learning-outcome/MeasurementAnovaAnalysis.xlsx
+++ b/exp2/case01/report/learning-outcome/MeasurementAnovaAnalysis.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="143">
   <si>
-    <t>Summary of ANOVA for Difference of Programming Skill - Loops</t>
+    <t>Summary of ANOVA for Difference of Programming Skill - Cond. Structures</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -76,13 +76,13 @@
     <t>Residuals</t>
   </si>
   <si>
-    <t>Fail and warnings in Anova for Difference of Programming Skill - Loops</t>
+    <t>Fail and warnings in Anova for Difference of Programming Skill - Cond. Structures</t>
   </si>
   <si>
-    <t>ANOVA assumptions for Difference of Programming Skill - Loops</t>
+    <t>ANOVA assumptions for Difference of Programming Skill - Cond. Structures</t>
   </si>
   <si>
-    <t>Shapiro-Wilk normality test for Difference of Programming Skill - Loops</t>
+    <t>Shapiro-Wilk normality test for Difference of Programming Skill - Cond. Structures</t>
   </si>
   <si>
     <t>W</t>
@@ -94,13 +94,13 @@
     <t>Plots for normality test</t>
   </si>
   <si>
-    <t>Levene's Test for Homogeneity of Variance in Difference of Programming Skill - Loops</t>
+    <t>Levene's Test for Homogeneity of Variance in Difference of Programming Skill - Cond. Structures</t>
   </si>
   <si>
     <t>Plots for homogeneity of variance</t>
   </si>
   <si>
-    <t>Minimum Sample Size Test for Difference of Programming Skill - Loops</t>
+    <t>Minimum Sample Size Test for Difference of Programming Skill - Cond. Structures</t>
   </si>
   <si>
     <t>Freq</t>
@@ -118,7 +118,7 @@
     <t>Master</t>
   </si>
   <si>
-    <t>Errors and Warnings in Sample Size Test for ANOVA in Difference of Programming Skill - Loops</t>
+    <t>Errors and Warnings in Sample Size Test for ANOVA in Difference of Programming Skill - Cond. Structures</t>
   </si>
   <si>
     <t>code</t>
@@ -153,7 +153,7 @@
 ... (2) Harwell, M.R., E.N. Rubinstein, W.S. Hayes, and C.C. Olds. 1992. Summarizing Monte Carlo results in methodological research: the one- and two-factor fixed effects ANOVA cases. J. Educ. Stat. 17: 315-339.</t>
   </si>
   <si>
-    <t>Post-hoc Tukey Honestly Significant Difference (HSD) Test for Difference of Programming Skill - Loops</t>
+    <t>Post-hoc Tukey Honestly Significant Difference (HSD) Test for Difference of Programming Skill - Cond. Structures</t>
   </si>
   <si>
     <t>Comparisons of means for Type</t>
@@ -201,7 +201,7 @@
     <t>ont-gamified:Master-non-gamified:Master</t>
   </si>
   <si>
-    <t>Contrast Matrices for Difference of Programming Skill - Loops - Type</t>
+    <t>Contrast Matrices for Difference of Programming Skill - Cond. Structures - Type</t>
   </si>
   <si>
     <t>contrast</t>
@@ -222,7 +222,7 @@
     <t>non-gamified - ont-gamified</t>
   </si>
   <si>
-    <t>Contrast Matrices for Difference of Programming Skill - Loops - Type:CLRole</t>
+    <t>Contrast Matrices for Difference of Programming Skill - Cond. Structures - Type:CLRole</t>
   </si>
   <si>
     <t>Least Squares Means and Confidence Intervals for Type</t>
@@ -258,10 +258,10 @@
     <t>Plots</t>
   </si>
   <si>
-    <t>Summary of Student's t-Test for Difference of Programming Skill - Loops</t>
+    <t>Summary of Student's t-Test for Difference of Programming Skill - Cond. Structures</t>
   </si>
   <si>
-    <t>Student's t-Test for Difference of Programming Skill - Loops in Type between non-gamified:ont-gamified</t>
+    <t>Student's t-Test for Difference of Programming Skill - Cond. Structures in Type between non-gamified:ont-gamified</t>
   </si>
   <si>
     <t>Student's t-Test results</t>
@@ -438,25 +438,25 @@
     <t/>
   </si>
   <si>
-    <t>Student's t-Test for Difference of Programming Skill - Loops in Type:CLRole between non-gamified.Apprentice:non-gamified.Master</t>
+    <t>Student's t-Test for Difference of Programming Skill - Cond. Structures in Type:CLRole between non-gamified.Apprentice:non-gamified.Master</t>
   </si>
   <si>
-    <t>Student's t-Test for Difference of Programming Skill - Loops in Type:CLRole between non-gamified.Apprentice:ont-gamified.Apprentice</t>
+    <t>Student's t-Test for Difference of Programming Skill - Cond. Structures in Type:CLRole between non-gamified.Apprentice:ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Student's t-Test for Difference of Programming Skill - Loops in Type:CLRole between non-gamified.Apprentice:ont-gamified.Master</t>
+    <t>Student's t-Test for Difference of Programming Skill - Cond. Structures in Type:CLRole between non-gamified.Apprentice:ont-gamified.Master</t>
   </si>
   <si>
-    <t>Student's t-Test for Difference of Programming Skill - Loops in Type:CLRole between non-gamified.Master:ont-gamified.Apprentice</t>
+    <t>Student's t-Test for Difference of Programming Skill - Cond. Structures in Type:CLRole between non-gamified.Master:ont-gamified.Apprentice</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>Student's t-Test for Difference of Programming Skill - Loops in Type:CLRole between non-gamified.Master:ont-gamified.Master</t>
+    <t>Student's t-Test for Difference of Programming Skill - Cond. Structures in Type:CLRole between non-gamified.Master:ont-gamified.Master</t>
   </si>
   <si>
-    <t>Student's t-Test for Difference of Programming Skill - Loops in Type:CLRole between ont-gamified.Apprentice:ont-gamified.Master</t>
+    <t>Student's t-Test for Difference of Programming Skill - Cond. Structures in Type:CLRole between ont-gamified.Apprentice:ont-gamified.Master</t>
   </si>
 </sst>
 </file>
